--- a/퀘스트실습파일.xlsx
+++ b/퀘스트실습파일.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\event_plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0580A994-2B7D-4097-8232-8F351C8A2A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5641E3D-A55C-48D5-9A6B-4E97A9DDA37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
   <si>
     <t>start</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">작성일시: </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>장식품을 찾아올 사람이 어디 없을까 ?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,10 +147,6 @@
   </si>
   <si>
     <t>tree_ornament</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내일이면 크리스마스라 지금 빨리 장식품을 찾아야해요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -254,10 +246,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일단 전구 몬스터가 LED 전구 장식품을 훔쳐갔어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">전구 몬스터를 잡고 장식품을 얻어와주세요 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,6 +271,39 @@
   </si>
   <si>
     <t>led_blub 회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전구 몬스터가 LED 전구 장식품을 훔쳐갔어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곧있으면 크리스마스라 빨리 장식품을 찾아야해요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">덕분이야 !! 내가 선물 하나를 줄께 내일도 다시 와줘야해!! </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일시: 2024.10.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">고마워 내일도 다시 올께 ! </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree_key1 지급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물을 개봉해본다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EXP_COUPON 지급,
+다음날 반복 퀘스트 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,6 +311,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -411,7 +435,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -451,15 +475,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -469,14 +505,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -819,13 +873,13 @@
     </row>
     <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
-      <c r="B2" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -855,7 +909,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -889,11 +943,11 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="21" t="s">
         <v>29</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -906,26 +960,26 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>8</v>
@@ -934,102 +988,102 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="20">
+      <c r="E11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="14">
         <v>3</v>
       </c>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="20" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="20" t="s">
+      <c r="E12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18" t="s">
-        <v>28</v>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>3</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G17" s="6"/>
     </row>
@@ -1068,24 +1122,24 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="11" t="s">
         <v>12</v>
       </c>
@@ -1093,94 +1147,94 @@
         <v>8</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F22" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="14"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2">
         <v>3</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="14"/>
-      <c r="C24" s="13" t="s">
+      <c r="B24" s="17"/>
+      <c r="C24" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F24" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
-      <c r="C26" s="13" t="s">
-        <v>36</v>
+      <c r="B26" s="17"/>
+      <c r="C26" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="D26" s="2">
         <v>5</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="14"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="12" t="s">
         <v>12</v>
       </c>
@@ -1188,36 +1242,36 @@
         <v>6</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="14"/>
-      <c r="C30" s="13" t="s">
-        <v>36</v>
+      <c r="B30" s="17"/>
+      <c r="C30" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="D30" s="2">
         <v>7</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="2" t="s">
+      <c r="F31" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
@@ -1238,8 +1292,8 @@
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="19" t="s">
-        <v>54</v>
+      <c r="B35" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>12</v>
@@ -1248,109 +1302,128 @@
         <v>1</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F35" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="14"/>
-      <c r="C36" s="13" t="s">
-        <v>29</v>
+      <c r="B36" s="24"/>
+      <c r="C36" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>2</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F37" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="14"/>
-      <c r="C38" s="13" t="s">
+      <c r="B38" s="24"/>
+      <c r="C38" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="2">
         <v>3</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="F38" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="2"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="2">
+        <v>4</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="14"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="2"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2">
+        <v>5</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B41" s="25"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="14"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="2"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="27"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="14"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="2"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="27"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="14"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="2"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="27"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="5"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B35:B45"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C36:C37"/>
+  <mergeCells count="13">
     <mergeCell ref="B21:B31"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B8:B17"/>
@@ -1360,6 +1433,10 @@
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B35:B41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1368,9 +1445,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1597,27 +1677,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74603C1D-7A89-4420-AEBA-6C25FED4B433}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F17F4256-95F1-47BD-94F2-DA0AC595E2A0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="951c725b-ee60-458d-8b03-4db62675c480"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="0556b6a6-7206-4304-b143-9ad59d86f8a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1642,9 +1710,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F17F4256-95F1-47BD-94F2-DA0AC595E2A0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74603C1D-7A89-4420-AEBA-6C25FED4B433}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="951c725b-ee60-458d-8b03-4db62675c480"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="0556b6a6-7206-4304-b143-9ad59d86f8a4"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>